--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1893,6 +1893,12 @@
   </si>
   <si>
     <t>庄小姐</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(宝山龙湖天街店)</t>
+  </si>
+  <si>
+    <t>张瑞超</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1930,10 +1936,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -2021,10 +2027,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2111,6 +2115,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2163,22 +2173,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2239,6 +2245,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2251,6 +2269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2258,6 +2282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,7 +2329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,31 +2365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,37 +2407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,10 +2850,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2856,19 +2862,19 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2877,10 +2883,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2889,13 +2895,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2910,90 +2916,90 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4131,10 +4137,10 @@
   <sheetPr/>
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <selection pane="bottomLeft" activeCell="O254" sqref="O254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15001,13 +15007,53 @@
         <v>13661599457</v>
       </c>
       <c r="O254" s="8" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="56"/>
-      <c r="N255" s="27"/>
-      <c r="O255" s="8"/>
+      <c r="B255" s="17">
+        <v>43087</v>
+      </c>
+      <c r="C255" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G255" s="8">
+        <v>76116391</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J255" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K255" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L255" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="M255" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N255" s="27">
+        <v>13524056463</v>
+      </c>
+      <c r="O255" s="8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="56"/>
@@ -16142,10 +16188,10 @@
     <mergeCell ref="A254:A257"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B255:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B256:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C255:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C256:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16174,13 +16220,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16191,7 +16237,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16202,7 +16248,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16213,7 +16259,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16229,7 +16275,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16240,7 +16286,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16256,7 +16302,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16267,7 +16313,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16278,7 +16324,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1899,6 +1899,18 @@
   </si>
   <si>
     <t>张瑞超</t>
+  </si>
+  <si>
+    <t>上海珍赏餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>乡姑缘</t>
+  </si>
+  <si>
+    <t>杨丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
   </si>
   <si>
     <t>姓名</t>
@@ -4137,10 +4149,10 @@
   <sheetPr/>
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O254" sqref="O254"/>
+      <selection pane="bottomLeft" activeCell="L256" sqref="L256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15057,8 +15069,48 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="56"/>
-      <c r="N256" s="27"/>
-      <c r="O256" s="8"/>
+      <c r="B256" s="17">
+        <v>43088</v>
+      </c>
+      <c r="C256" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G256" s="8">
+        <v>76117306</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J256" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L256" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="M256" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N256" s="27">
+        <v>13761461169</v>
+      </c>
+      <c r="O256" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="61"/>
@@ -15132,6 +15184,9 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="19"/>
+      <c r="G271" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="N271" s="27"/>
       <c r="O271" s="8"/>
     </row>
@@ -16188,10 +16243,10 @@
     <mergeCell ref="A254:A257"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B256:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B257:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C256:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C257:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16220,13 +16275,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16237,7 +16292,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16248,7 +16303,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16259,7 +16314,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16275,7 +16330,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16286,7 +16341,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16302,7 +16357,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16313,7 +16368,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16324,7 +16379,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
@@ -12,7 +12,7 @@
     <sheet name="加班明细表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$B$1:$P$589</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$B$1:$P$592</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1911,6 +1911,12 @@
   </si>
   <si>
     <t>章小姐</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(五角场万达店)</t>
+  </si>
+  <si>
+    <t>陈华</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
@@ -1951,11 +1957,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2042,46 +2048,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2102,37 +2076,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2140,9 +2115,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2162,22 +2137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
@@ -2185,7 +2144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2196,10 +2155,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2260,7 +2266,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2272,13 +2314,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,73 +2404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,55 +2428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,16 +2799,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2812,7 +2842,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2832,11 +2862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2855,38 +2891,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,10 +2902,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2908,144 +2914,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4199,12 +4205,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P754"/>
+  <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15950,29 +15956,99 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" s="5" customFormat="1" spans="1:16">
       <c r="A257" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="65"/>
-      <c r="O257" s="12"/>
-      <c r="P257" s="8"/>
-    </row>
-    <row r="258" spans="1:16">
-      <c r="A258" s="22"/>
-      <c r="B258" s="21"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="18">
+        <v>43089</v>
+      </c>
+      <c r="D257" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H257" s="8">
+        <v>76116396</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="J257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K257" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M257" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="N257" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O257" s="12">
+        <v>15921046369</v>
+      </c>
+      <c r="P257" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="258" s="5" customFormat="1" spans="1:16">
+      <c r="A258" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B258" s="65"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+      <c r="J258" s="8"/>
+      <c r="K258" s="8"/>
+      <c r="L258" s="8"/>
+      <c r="M258" s="8"/>
+      <c r="N258" s="8"/>
       <c r="O258" s="12"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="1:16">
-      <c r="A259" s="22"/>
-      <c r="B259" s="21"/>
+    <row r="259" s="5" customFormat="1" spans="1:16">
+      <c r="A259" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="65"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+      <c r="J259" s="8"/>
+      <c r="K259" s="8"/>
+      <c r="L259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
       <c r="O259" s="12"/>
       <c r="P259" s="8"/>
     </row>
     <row r="260" spans="1:16">
-      <c r="A260" s="22"/>
-      <c r="B260" s="21"/>
+      <c r="A260" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" s="65"/>
       <c r="O260" s="12"/>
       <c r="P260" s="8"/>
     </row>
@@ -16039,9 +16115,6 @@
     <row r="271" spans="1:16">
       <c r="A271" s="22"/>
       <c r="B271" s="21"/>
-      <c r="H271" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="O271" s="12"/>
       <c r="P271" s="8"/>
     </row>
@@ -16060,6 +16133,9 @@
     <row r="274" spans="1:16">
       <c r="A274" s="22"/>
       <c r="B274" s="21"/>
+      <c r="H274" s="8" t="s">
+        <v>618</v>
+      </c>
       <c r="O274" s="12"/>
       <c r="P274" s="8"/>
     </row>
@@ -16315,17 +16391,23 @@
       <c r="O316" s="12"/>
       <c r="P316" s="8"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:16">
       <c r="A317" s="22"/>
       <c r="B317" s="21"/>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="O317" s="12"/>
+      <c r="P317" s="8"/>
+    </row>
+    <row r="318" spans="1:16">
       <c r="A318" s="22"/>
       <c r="B318" s="21"/>
-    </row>
-    <row r="319" spans="1:2">
+      <c r="O318" s="12"/>
+      <c r="P318" s="8"/>
+    </row>
+    <row r="319" spans="1:16">
       <c r="A319" s="22"/>
       <c r="B319" s="21"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="8"/>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="22"/>
@@ -16692,7 +16774,7 @@
       <c r="B410" s="21"/>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="66"/>
+      <c r="A411" s="22"/>
       <c r="B411" s="21"/>
     </row>
     <row r="412" spans="1:2">
@@ -16704,7 +16786,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="22"/>
+      <c r="A414" s="66"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -16764,7 +16846,7 @@
       <c r="B428" s="21"/>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="66"/>
+      <c r="A429" s="22"/>
       <c r="B429" s="21"/>
     </row>
     <row r="430" spans="1:2">
@@ -16772,1160 +16854,1172 @@
       <c r="B430" s="21"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="66"/>
+      <c r="A431" s="22"/>
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="22"/>
+      <c r="A432" s="66"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="66"/>
+      <c r="A433" s="22"/>
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="22"/>
+      <c r="A434" s="66"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="66"/>
+      <c r="A435" s="22"/>
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="22"/>
+      <c r="A436" s="66"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="66"/>
+      <c r="A437" s="22"/>
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="22"/>
+      <c r="A438" s="66"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="66"/>
+      <c r="A439" s="22"/>
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="22"/>
+      <c r="A440" s="66"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="66"/>
+      <c r="A441" s="22"/>
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="22"/>
+      <c r="A442" s="66"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="66"/>
+      <c r="A443" s="22"/>
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="22"/>
+      <c r="A444" s="66"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="66"/>
+      <c r="A445" s="22"/>
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="22"/>
+      <c r="A446" s="66"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="66"/>
+      <c r="A447" s="22"/>
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="22"/>
+      <c r="A448" s="66"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="66"/>
+      <c r="A449" s="22"/>
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="22"/>
+      <c r="A450" s="66"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="66"/>
+      <c r="A451" s="22"/>
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="22"/>
+      <c r="A452" s="66"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="66"/>
+      <c r="A453" s="22"/>
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="22"/>
+      <c r="A454" s="66"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="66"/>
+      <c r="A455" s="22"/>
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="22"/>
+      <c r="A456" s="66"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="66"/>
+      <c r="A457" s="22"/>
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="22"/>
+      <c r="A458" s="66"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="66"/>
+      <c r="A459" s="22"/>
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="22"/>
+      <c r="A460" s="66"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="66"/>
+      <c r="A461" s="22"/>
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="22"/>
+      <c r="A462" s="66"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="66"/>
+      <c r="A463" s="22"/>
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="22"/>
+      <c r="A464" s="66"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="66"/>
+      <c r="A465" s="22"/>
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="22"/>
+      <c r="A466" s="66"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="66"/>
+      <c r="A467" s="22"/>
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="22"/>
+      <c r="A468" s="66"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="66"/>
+      <c r="A469" s="22"/>
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="22"/>
+      <c r="A470" s="66"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="66"/>
+      <c r="A471" s="22"/>
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="22"/>
+      <c r="A472" s="66"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="66"/>
+      <c r="A473" s="22"/>
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="22"/>
+      <c r="A474" s="66"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="66"/>
+      <c r="A475" s="22"/>
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="22"/>
+      <c r="A476" s="66"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="66"/>
+      <c r="A477" s="22"/>
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="22"/>
+      <c r="A478" s="66"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="66"/>
+      <c r="A479" s="22"/>
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="22"/>
+      <c r="A480" s="66"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="66"/>
+      <c r="A481" s="22"/>
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="22"/>
+      <c r="A482" s="66"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="66"/>
+      <c r="A483" s="22"/>
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="22"/>
+      <c r="A484" s="66"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="66"/>
+      <c r="A485" s="22"/>
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="22"/>
+      <c r="A486" s="66"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="66"/>
+      <c r="A487" s="22"/>
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="22"/>
+      <c r="A488" s="66"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="66"/>
+      <c r="A489" s="22"/>
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="22"/>
+      <c r="A490" s="66"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="66"/>
+      <c r="A491" s="22"/>
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="22"/>
+      <c r="A492" s="66"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="66"/>
+      <c r="A493" s="22"/>
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="22"/>
+      <c r="A494" s="66"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="66"/>
+      <c r="A495" s="22"/>
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="22"/>
+      <c r="A496" s="66"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="66"/>
+      <c r="A497" s="22"/>
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="22"/>
+      <c r="A498" s="66"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="66"/>
+      <c r="A499" s="22"/>
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="22"/>
+      <c r="A500" s="66"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="66"/>
+      <c r="A501" s="22"/>
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="22"/>
+      <c r="A502" s="66"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="66"/>
+      <c r="A503" s="22"/>
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="22"/>
+      <c r="A504" s="66"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="66"/>
+      <c r="A505" s="22"/>
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="22"/>
+      <c r="A506" s="66"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="66"/>
+      <c r="A507" s="22"/>
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="22"/>
+      <c r="A508" s="66"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="66"/>
+      <c r="A509" s="22"/>
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="22"/>
+      <c r="A510" s="66"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="66"/>
+      <c r="A511" s="22"/>
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="22"/>
+      <c r="A512" s="66"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="66"/>
+      <c r="A513" s="22"/>
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="22"/>
+      <c r="A514" s="66"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="66"/>
+      <c r="A515" s="22"/>
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="22"/>
+      <c r="A516" s="66"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="66"/>
+      <c r="A517" s="22"/>
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="22"/>
+      <c r="A518" s="66"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="66"/>
+      <c r="A519" s="22"/>
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="22"/>
+      <c r="A520" s="66"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="66"/>
+      <c r="A521" s="22"/>
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="22"/>
+      <c r="A522" s="66"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="66"/>
+      <c r="A523" s="22"/>
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="22"/>
+      <c r="A524" s="66"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="66"/>
+      <c r="A525" s="22"/>
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="22"/>
+      <c r="A526" s="66"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="66"/>
+      <c r="A527" s="22"/>
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="22"/>
+      <c r="A528" s="66"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="66"/>
+      <c r="A529" s="22"/>
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="22"/>
+      <c r="A530" s="66"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="66"/>
+      <c r="A531" s="22"/>
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="22"/>
+      <c r="A532" s="66"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="66"/>
+      <c r="A533" s="22"/>
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="22"/>
+      <c r="A534" s="66"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="66"/>
+      <c r="A535" s="22"/>
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="22"/>
+      <c r="A536" s="66"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="66"/>
+      <c r="A537" s="22"/>
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="22"/>
+      <c r="A538" s="66"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="66"/>
+      <c r="A539" s="22"/>
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="22"/>
+      <c r="A540" s="66"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="66"/>
+      <c r="A541" s="22"/>
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="22"/>
+      <c r="A542" s="66"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="66"/>
+      <c r="A543" s="22"/>
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="22"/>
+      <c r="A544" s="66"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="66"/>
+      <c r="A545" s="22"/>
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="22"/>
+      <c r="A546" s="66"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="66"/>
+      <c r="A547" s="22"/>
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="22"/>
+      <c r="A548" s="66"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="66"/>
+      <c r="A549" s="22"/>
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="22"/>
+      <c r="A550" s="66"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="66"/>
+      <c r="A551" s="22"/>
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="22"/>
+      <c r="A552" s="66"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="66"/>
+      <c r="A553" s="22"/>
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="22"/>
+      <c r="A554" s="66"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="66"/>
+      <c r="A555" s="22"/>
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="22"/>
+      <c r="A556" s="66"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="66"/>
+      <c r="A557" s="22"/>
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="22"/>
+      <c r="A558" s="66"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="66"/>
+      <c r="A559" s="22"/>
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="22"/>
+      <c r="A560" s="66"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="66"/>
+      <c r="A561" s="22"/>
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="22"/>
+      <c r="A562" s="66"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="66"/>
+      <c r="A563" s="22"/>
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="22"/>
+      <c r="A564" s="66"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="66"/>
+      <c r="A565" s="22"/>
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="22"/>
+      <c r="A566" s="66"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="66"/>
+      <c r="A567" s="22"/>
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="22"/>
+      <c r="A568" s="66"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="66"/>
+      <c r="A569" s="22"/>
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="22"/>
+      <c r="A570" s="66"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="66"/>
+      <c r="A571" s="22"/>
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="22"/>
+      <c r="A572" s="66"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="66"/>
+      <c r="A573" s="22"/>
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="22"/>
+      <c r="A574" s="66"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="66"/>
+      <c r="A575" s="22"/>
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="22"/>
+      <c r="A576" s="66"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="66"/>
+      <c r="A577" s="22"/>
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="22"/>
+      <c r="A578" s="66"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="66"/>
+      <c r="A579" s="22"/>
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="22"/>
+      <c r="A580" s="66"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="66"/>
+      <c r="A581" s="22"/>
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="22"/>
+      <c r="A582" s="66"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="66"/>
+      <c r="A583" s="22"/>
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="22"/>
+      <c r="A584" s="66"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="66"/>
+      <c r="A585" s="22"/>
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="22"/>
+      <c r="A586" s="66"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="66"/>
+      <c r="A587" s="22"/>
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="22"/>
+      <c r="A588" s="66"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="66"/>
+      <c r="A589" s="22"/>
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="22"/>
-      <c r="B590" s="15"/>
+      <c r="A590" s="66"/>
+      <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="66"/>
-      <c r="B591" s="15"/>
+      <c r="A591" s="22"/>
+      <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="22"/>
-      <c r="B592" s="15"/>
+      <c r="A592" s="66"/>
+      <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="66"/>
+      <c r="A593" s="22"/>
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="22"/>
+      <c r="A594" s="66"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="66"/>
+      <c r="A595" s="22"/>
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="22"/>
+      <c r="A596" s="66"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="66"/>
+      <c r="A597" s="22"/>
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="22"/>
+      <c r="A598" s="66"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="66"/>
+      <c r="A599" s="22"/>
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="22"/>
+      <c r="A600" s="66"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="66"/>
+      <c r="A601" s="22"/>
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="22"/>
+      <c r="A602" s="66"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="66"/>
+      <c r="A603" s="22"/>
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="22"/>
+      <c r="A604" s="66"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="66"/>
+      <c r="A605" s="22"/>
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="22"/>
+      <c r="A606" s="66"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="66"/>
+      <c r="A607" s="22"/>
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="22"/>
+      <c r="A608" s="66"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="66"/>
+      <c r="A609" s="22"/>
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="22"/>
+      <c r="A610" s="66"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="66"/>
+      <c r="A611" s="22"/>
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="22"/>
+      <c r="A612" s="66"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="66"/>
+      <c r="A613" s="22"/>
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="22"/>
+      <c r="A614" s="66"/>
       <c r="B614" s="15"/>
     </row>
-    <row r="615" spans="1:1">
-      <c r="A615" s="67"/>
-    </row>
-    <row r="616" spans="1:1">
-      <c r="A616" s="12"/>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617" s="67"/>
+    <row r="615" spans="1:2">
+      <c r="A615" s="22"/>
+      <c r="B615" s="15"/>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="66"/>
+      <c r="B616" s="15"/>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="22"/>
+      <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="12"/>
+      <c r="A618" s="67"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="67"/>
+      <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="12"/>
+      <c r="A620" s="67"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="67"/>
+      <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="12"/>
+      <c r="A622" s="67"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="67"/>
+      <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="12"/>
+      <c r="A624" s="67"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="67"/>
+      <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="12"/>
+      <c r="A626" s="67"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="67"/>
+      <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="12"/>
+      <c r="A628" s="67"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="67"/>
+      <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="12"/>
+      <c r="A630" s="67"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="67"/>
+      <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="12"/>
+      <c r="A632" s="67"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="67"/>
+      <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="12"/>
+      <c r="A634" s="67"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="67"/>
+      <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="12"/>
+      <c r="A636" s="67"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="67"/>
+      <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="12"/>
+      <c r="A638" s="67"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="67"/>
+      <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="12"/>
+      <c r="A640" s="67"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="67"/>
+      <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="12"/>
+      <c r="A642" s="67"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="67"/>
+      <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="12"/>
+      <c r="A644" s="67"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="67"/>
+      <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="12"/>
+      <c r="A646" s="67"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="67"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="12"/>
+      <c r="A648" s="67"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="67"/>
+      <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="12"/>
+      <c r="A650" s="67"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="67"/>
+      <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="12"/>
+      <c r="A652" s="67"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="67"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="12"/>
+      <c r="A654" s="67"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="67"/>
+      <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="12"/>
+      <c r="A656" s="67"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="67"/>
+      <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="12"/>
+      <c r="A658" s="67"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="67"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="12"/>
+      <c r="A660" s="67"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="67"/>
+      <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="12"/>
+      <c r="A662" s="67"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="67"/>
+      <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="12"/>
+      <c r="A664" s="67"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="67"/>
+      <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="12"/>
+      <c r="A666" s="67"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="67"/>
+      <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="12"/>
+      <c r="A668" s="67"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="67"/>
+      <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="12"/>
+      <c r="A670" s="67"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="67"/>
+      <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="12"/>
+      <c r="A672" s="67"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="67"/>
+      <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="12"/>
+      <c r="A674" s="67"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="67"/>
+      <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="12"/>
+      <c r="A676" s="67"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="67"/>
+      <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="12"/>
+      <c r="A678" s="67"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="67"/>
+      <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="12"/>
+      <c r="A680" s="67"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="67"/>
+      <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="12"/>
+      <c r="A682" s="67"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="67"/>
+      <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="12"/>
+      <c r="A684" s="67"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="67"/>
+      <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="12"/>
+      <c r="A686" s="67"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="67"/>
+      <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="12"/>
+      <c r="A688" s="67"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="67"/>
+      <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="12"/>
+      <c r="A690" s="67"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="67"/>
+      <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="12"/>
+      <c r="A692" s="67"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="67"/>
+      <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="12"/>
+      <c r="A694" s="67"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="67"/>
+      <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="12"/>
+      <c r="A696" s="67"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="67"/>
+      <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="12"/>
+      <c r="A698" s="67"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="67"/>
+      <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="12"/>
+      <c r="A700" s="67"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="67"/>
+      <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="12"/>
+      <c r="A702" s="67"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="67"/>
+      <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="12"/>
+      <c r="A704" s="67"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="67"/>
+      <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="12"/>
+      <c r="A706" s="67"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="67"/>
+      <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="12"/>
+      <c r="A708" s="67"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="67"/>
+      <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="12"/>
+      <c r="A710" s="67"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="67"/>
+      <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="12"/>
+      <c r="A712" s="67"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="67"/>
+      <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="12"/>
+      <c r="A714" s="67"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="67"/>
+      <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="12"/>
+      <c r="A716" s="67"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="67"/>
+      <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="12"/>
+      <c r="A718" s="67"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="67"/>
+      <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="12"/>
+      <c r="A720" s="67"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="67"/>
+      <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="12"/>
+      <c r="A722" s="67"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="67"/>
+      <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="12"/>
+      <c r="A724" s="67"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="67"/>
+      <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="12"/>
+      <c r="A726" s="67"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="67"/>
+      <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="12"/>
+      <c r="A728" s="67"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="67"/>
+      <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="12"/>
+      <c r="A730" s="67"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="67"/>
+      <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="12"/>
+      <c r="A732" s="67"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="67"/>
+      <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="12"/>
+      <c r="A734" s="67"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="67"/>
+      <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="12"/>
+      <c r="A736" s="67"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="67"/>
+      <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="12"/>
+      <c r="A738" s="67"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="67"/>
+      <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="12"/>
+      <c r="A740" s="67"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="67"/>
+      <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="12"/>
+      <c r="A742" s="67"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="67"/>
+      <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="12"/>
+      <c r="A744" s="67"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="67"/>
+      <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="12"/>
+      <c r="A746" s="67"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="67"/>
+      <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="12"/>
+      <c r="A748" s="67"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="67"/>
+      <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="12"/>
+      <c r="A750" s="67"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="67"/>
+      <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="12"/>
+      <c r="A752" s="67"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="67"/>
+      <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="12"/>
+      <c r="A754" s="67"/>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="12"/>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="67"/>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17937,13 +18031,13 @@
     <mergeCell ref="B201:B215"/>
     <mergeCell ref="B217:B226"/>
     <mergeCell ref="B228:B252"/>
-    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="B254:B260"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C257:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C260:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D216 D217:D226 D230:D234 D257:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D216 D217:D226 D230:D234 D260:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17972,13 +18066,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17989,7 +18083,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18000,7 +18094,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18011,7 +18105,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18027,7 +18121,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18038,7 +18132,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18054,7 +18148,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18065,7 +18159,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18076,7 +18170,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
@@ -1963,7 +1963,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,13 +2029,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2047,15 +2040,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2076,8 +2075,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2091,7 +2107,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2105,19 +2129,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2138,9 +2160,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2150,30 +2173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,21 +2199,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2266,49 +2259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,13 +2301,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,13 +2385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,67 +2409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,30 +2506,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2666,6 +2635,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2710,6 +2692,17 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2799,11 +2792,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2823,17 +2846,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2862,32 +2881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2902,10 +2895,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2914,149 +2907,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3180,16 +3173,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3207,28 +3197,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3237,7 +3209,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3246,64 +3218,61 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3315,22 +3284,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3342,10 +3311,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3354,34 +3323,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3399,16 +3368,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3756,440 +3725,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="70"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108" t="e">
+      <c r="J3" s="99"/>
+      <c r="K3" s="100" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="101">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="102">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="111" t="e">
+      <c r="N3" s="103" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86">
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="87">
+      <c r="G4" s="79"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="108" t="e">
+      <c r="J4" s="104"/>
+      <c r="K4" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="102">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="111" t="e">
+      <c r="N4" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86">
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="87">
+      <c r="G5" s="79"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="108" t="e">
+      <c r="J5" s="104"/>
+      <c r="K5" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="110">
+      <c r="M5" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="111" t="e">
+      <c r="N5" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86">
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="87">
+      <c r="G6" s="79"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="108" t="e">
+      <c r="J6" s="104"/>
+      <c r="K6" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="111" t="e">
+      <c r="N6" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="87">
+      <c r="G7" s="79"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="108" t="e">
+      <c r="J7" s="104"/>
+      <c r="K7" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="110">
+      <c r="M7" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="111" t="e">
+      <c r="N7" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86">
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="87">
+      <c r="G8" s="79"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="108" t="e">
+      <c r="J8" s="104"/>
+      <c r="K8" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="110">
+      <c r="M8" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="111" t="e">
+      <c r="N8" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86">
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="87">
+      <c r="G9" s="79"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="108" t="e">
+      <c r="J9" s="104"/>
+      <c r="K9" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="111" t="e">
+      <c r="N9" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="88" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91">
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92">
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114" t="e">
+      <c r="J10" s="105"/>
+      <c r="K10" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="117" t="e">
+      <c r="N10" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="89">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="89">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="118" t="e">
+      <c r="K11" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11" s="90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="119" t="e">
+      <c r="N11" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4208,9 +4177,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="$A201:$XFD218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8484,7 +8453,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="120" t="s">
+      <c r="O95" s="112" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -11479,13 +11448,13 @@
       <c r="L159" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M159" s="47" t="s">
+      <c r="M159" s="46" t="s">
         <v>405</v>
       </c>
       <c r="N159" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O159" s="48">
+      <c r="O159" s="47">
         <v>18692273777</v>
       </c>
       <c r="P159" s="15" t="s">
@@ -11575,13 +11544,13 @@
       <c r="L161" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M161" s="48" t="s">
+      <c r="M161" s="47" t="s">
         <v>409</v>
       </c>
       <c r="N161" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O161" s="48">
+      <c r="O161" s="47">
         <v>13906231845</v>
       </c>
       <c r="P161" s="15" t="s">
@@ -11823,13 +11792,13 @@
       <c r="L167" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M167" s="49" t="s">
+      <c r="M167" s="48" t="s">
         <v>422</v>
       </c>
       <c r="N167" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O167" s="49">
+      <c r="O167" s="48">
         <v>13916936635</v>
       </c>
       <c r="P167" s="8" t="s">
@@ -12424,7 +12393,9 @@
       <c r="A181" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B181" s="46"/>
+      <c r="B181" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C181" s="44">
         <v>43053</v>
       </c>
@@ -12443,7 +12414,7 @@
       <c r="H181" s="42">
         <v>76103683</v>
       </c>
-      <c r="I181" s="50" t="s">
+      <c r="I181" s="49" t="s">
         <v>453</v>
       </c>
       <c r="J181" s="45" t="s">
@@ -12455,7 +12426,7 @@
       <c r="L181" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M181" s="51" t="s">
+      <c r="M181" s="50" t="s">
         <v>454</v>
       </c>
       <c r="N181" s="45" t="s">
@@ -12472,7 +12443,9 @@
       <c r="A182" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B182" s="46"/>
+      <c r="B182" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C182" s="44">
         <v>43053</v>
       </c>
@@ -12503,7 +12476,7 @@
       <c r="L182" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M182" s="47" t="s">
+      <c r="M182" s="46" t="s">
         <v>456</v>
       </c>
       <c r="N182" s="45" t="s">
@@ -12520,7 +12493,9 @@
       <c r="A183" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="46"/>
+      <c r="B183" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C183" s="44">
         <v>43053</v>
       </c>
@@ -12568,7 +12543,9 @@
       <c r="A184" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="46"/>
+      <c r="B184" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C184" s="44">
         <v>43053</v>
       </c>
@@ -12587,7 +12564,7 @@
       <c r="H184" s="42">
         <v>76078788</v>
       </c>
-      <c r="I184" s="50" t="s">
+      <c r="I184" s="49" t="s">
         <v>459</v>
       </c>
       <c r="J184" s="45" t="s">
@@ -12599,7 +12576,7 @@
       <c r="L184" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M184" s="47" t="s">
+      <c r="M184" s="46" t="s">
         <v>460</v>
       </c>
       <c r="N184" s="45" t="s">
@@ -12616,7 +12593,9 @@
       <c r="A185" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B185" s="46"/>
+      <c r="B185" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C185" s="44">
         <v>43053</v>
       </c>
@@ -12664,7 +12643,9 @@
       <c r="A186" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="46"/>
+      <c r="B186" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C186" s="44">
         <v>43053</v>
       </c>
@@ -12695,7 +12676,7 @@
       <c r="L186" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M186" s="47" t="s">
+      <c r="M186" s="46" t="s">
         <v>464</v>
       </c>
       <c r="N186" s="45" t="s">
@@ -12712,7 +12693,9 @@
       <c r="A187" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B187" s="46"/>
+      <c r="B187" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C187" s="44">
         <v>43053</v>
       </c>
@@ -12743,7 +12726,7 @@
       <c r="L187" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M187" s="51" t="s">
+      <c r="M187" s="50" t="s">
         <v>467</v>
       </c>
       <c r="N187" s="45" t="s">
@@ -12760,7 +12743,9 @@
       <c r="A188" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B188" s="46"/>
+      <c r="B188" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C188" s="44">
         <v>43053</v>
       </c>
@@ -12808,7 +12793,9 @@
       <c r="A189" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B189" s="46"/>
+      <c r="B189" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C189" s="44">
         <v>43053</v>
       </c>
@@ -12856,7 +12843,9 @@
       <c r="A190" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="46"/>
+      <c r="B190" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C190" s="44">
         <v>43053</v>
       </c>
@@ -12904,7 +12893,9 @@
       <c r="A191" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B191" s="46"/>
+      <c r="B191" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C191" s="44">
         <v>43053</v>
       </c>
@@ -12952,7 +12943,9 @@
       <c r="A192" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B192" s="46"/>
+      <c r="B192" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C192" s="44">
         <v>43053</v>
       </c>
@@ -12971,7 +12964,7 @@
       <c r="H192" s="42">
         <v>76101937</v>
       </c>
-      <c r="I192" s="50" t="s">
+      <c r="I192" s="49" t="s">
         <v>476</v>
       </c>
       <c r="J192" s="45" t="s">
@@ -12983,7 +12976,7 @@
       <c r="L192" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M192" s="47" t="s">
+      <c r="M192" s="46" t="s">
         <v>477</v>
       </c>
       <c r="N192" s="45" t="s">
@@ -13000,7 +12993,9 @@
       <c r="A193" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B193" s="46"/>
+      <c r="B193" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C193" s="44">
         <v>43053</v>
       </c>
@@ -13048,7 +13043,9 @@
       <c r="A194" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="46"/>
+      <c r="B194" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C194" s="44">
         <v>43053</v>
       </c>
@@ -13067,7 +13064,7 @@
       <c r="H194" s="42">
         <v>76108187</v>
       </c>
-      <c r="I194" s="50" t="s">
+      <c r="I194" s="49" t="s">
         <v>480</v>
       </c>
       <c r="J194" s="45" t="s">
@@ -13096,7 +13093,9 @@
       <c r="A195" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B195" s="46"/>
+      <c r="B195" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C195" s="44">
         <v>43053</v>
       </c>
@@ -13115,7 +13114,7 @@
       <c r="H195" s="42">
         <v>76108196</v>
       </c>
-      <c r="I195" s="50" t="s">
+      <c r="I195" s="49" t="s">
         <v>482</v>
       </c>
       <c r="J195" s="45" t="s">
@@ -13144,7 +13143,9 @@
       <c r="A196" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="46"/>
+      <c r="B196" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C196" s="44">
         <v>43053</v>
       </c>
@@ -13163,7 +13164,7 @@
       <c r="H196" s="42">
         <v>76108636</v>
       </c>
-      <c r="I196" s="50" t="s">
+      <c r="I196" s="49" t="s">
         <v>484</v>
       </c>
       <c r="J196" s="45" t="s">
@@ -13192,7 +13193,9 @@
       <c r="A197" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="46"/>
+      <c r="B197" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C197" s="44">
         <v>43053</v>
       </c>
@@ -13211,7 +13214,7 @@
       <c r="H197" s="42">
         <v>76093718</v>
       </c>
-      <c r="I197" s="50" t="s">
+      <c r="I197" s="49" t="s">
         <v>229</v>
       </c>
       <c r="J197" s="45" t="s">
@@ -13240,7 +13243,9 @@
       <c r="A198" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B198" s="46"/>
+      <c r="B198" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C198" s="44">
         <v>43053</v>
       </c>
@@ -13288,7 +13293,9 @@
       <c r="A199" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B199" s="52"/>
+      <c r="B199" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C199" s="34">
         <v>43054</v>
       </c>
@@ -13332,23 +13339,23 @@
         <v>452</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" s="5" customFormat="1" spans="1:16">
       <c r="A200" s="12"/>
-      <c r="B200" s="53"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="54"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
-      <c r="P200" s="60"/>
+      <c r="B200" s="51"/>
+      <c r="C200" s="52"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="52"/>
+      <c r="H200" s="52"/>
+      <c r="I200" s="52"/>
+      <c r="J200" s="52"/>
+      <c r="K200" s="52"/>
+      <c r="L200" s="52"/>
+      <c r="M200" s="52"/>
+      <c r="N200" s="52"/>
+      <c r="O200" s="52"/>
+      <c r="P200" s="53"/>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="12" t="s">
@@ -13404,7 +13411,9 @@
       <c r="A202" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B202" s="46"/>
+      <c r="B202" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C202" s="34">
         <v>43059</v>
       </c>
@@ -13452,7 +13461,9 @@
       <c r="A203" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="46"/>
+      <c r="B203" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C203" s="34">
         <v>43059</v>
       </c>
@@ -13500,7 +13511,9 @@
       <c r="A204" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="46"/>
+      <c r="B204" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C204" s="34">
         <v>43059</v>
       </c>
@@ -13548,7 +13561,9 @@
       <c r="A205" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B205" s="46"/>
+      <c r="B205" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C205" s="34">
         <v>43059</v>
       </c>
@@ -13596,7 +13611,9 @@
       <c r="A206" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B206" s="46"/>
+      <c r="B206" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C206" s="34">
         <v>43059</v>
       </c>
@@ -13644,7 +13661,9 @@
       <c r="A207" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B207" s="46"/>
+      <c r="B207" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C207" s="34">
         <v>43059</v>
       </c>
@@ -13692,7 +13711,9 @@
       <c r="A208" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B208" s="46"/>
+      <c r="B208" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C208" s="34">
         <v>43059</v>
       </c>
@@ -13740,7 +13761,9 @@
       <c r="A209" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B209" s="46"/>
+      <c r="B209" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C209" s="34">
         <v>43059</v>
       </c>
@@ -13788,7 +13811,9 @@
       <c r="A210" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="46"/>
+      <c r="B210" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C210" s="34">
         <v>43059</v>
       </c>
@@ -13836,7 +13861,9 @@
       <c r="A211" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B211" s="46"/>
+      <c r="B211" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C211" s="34">
         <v>43059</v>
       </c>
@@ -13884,7 +13911,9 @@
       <c r="A212" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B212" s="46"/>
+      <c r="B212" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C212" s="34">
         <v>43059</v>
       </c>
@@ -13932,7 +13961,9 @@
       <c r="A213" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B213" s="46"/>
+      <c r="B213" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C213" s="34">
         <v>43059</v>
       </c>
@@ -13980,7 +14011,9 @@
       <c r="A214" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B214" s="46"/>
+      <c r="B214" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C214" s="34">
         <v>43059</v>
       </c>
@@ -14028,7 +14061,9 @@
       <c r="A215" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B215" s="52"/>
+      <c r="B215" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C215" s="34">
         <v>43059</v>
       </c>
@@ -14072,29 +14107,29 @@
         <v>452</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" s="5" customFormat="1" spans="1:16">
       <c r="A216" s="12"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="54"/>
-      <c r="I216" s="54"/>
-      <c r="J216" s="54"/>
-      <c r="K216" s="54"/>
-      <c r="L216" s="54"/>
-      <c r="M216" s="54"/>
-      <c r="N216" s="54"/>
-      <c r="O216" s="54"/>
-      <c r="P216" s="60"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="52"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="52"/>
+      <c r="I216" s="52"/>
+      <c r="J216" s="52"/>
+      <c r="K216" s="52"/>
+      <c r="L216" s="52"/>
+      <c r="M216" s="52"/>
+      <c r="N216" s="52"/>
+      <c r="O216" s="52"/>
+      <c r="P216" s="53"/>
     </row>
     <row r="217" spans="1:16">
       <c r="A217" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B217" s="55" t="s">
+      <c r="B217" s="43" t="s">
         <v>526</v>
       </c>
       <c r="C217" s="34">
@@ -14144,7 +14179,9 @@
       <c r="A218" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B218" s="56"/>
+      <c r="B218" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C218" s="34">
         <v>43069</v>
       </c>
@@ -14181,7 +14218,7 @@
       <c r="N218" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="O218" s="50">
+      <c r="O218" s="49">
         <v>17802152313</v>
       </c>
       <c r="P218" s="8" t="s">
@@ -14192,7 +14229,9 @@
       <c r="A219" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B219" s="56"/>
+      <c r="B219" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C219" s="34">
         <v>43069</v>
       </c>
@@ -14240,7 +14279,9 @@
       <c r="A220" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="56"/>
+      <c r="B220" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C220" s="34">
         <v>43069</v>
       </c>
@@ -14271,13 +14312,13 @@
       <c r="L220" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M220" s="61" t="s">
+      <c r="M220" s="54" t="s">
         <v>535</v>
       </c>
       <c r="N220" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="O220" s="62" t="s">
+      <c r="O220" s="55" t="s">
         <v>536</v>
       </c>
       <c r="P220" s="8" t="s">
@@ -14288,7 +14329,9 @@
       <c r="A221" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B221" s="56"/>
+      <c r="B221" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C221" s="34">
         <v>43069</v>
       </c>
@@ -14307,7 +14350,7 @@
       <c r="H221" s="42">
         <v>76111881</v>
       </c>
-      <c r="I221" s="50" t="s">
+      <c r="I221" s="49" t="s">
         <v>537</v>
       </c>
       <c r="J221" s="15" t="s">
@@ -14336,7 +14379,9 @@
       <c r="A222" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B222" s="56"/>
+      <c r="B222" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C222" s="34">
         <v>43069</v>
       </c>
@@ -14352,10 +14397,10 @@
       <c r="G222" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="H222" s="50">
+      <c r="H222" s="49">
         <v>76111880</v>
       </c>
-      <c r="I222" s="50" t="s">
+      <c r="I222" s="49" t="s">
         <v>540</v>
       </c>
       <c r="J222" s="15" t="s">
@@ -14384,7 +14429,9 @@
       <c r="A223" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="56"/>
+      <c r="B223" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C223" s="34">
         <v>43069</v>
       </c>
@@ -14400,10 +14447,10 @@
       <c r="G223" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H223" s="50">
+      <c r="H223" s="49">
         <v>76107522</v>
       </c>
-      <c r="I223" s="50" t="s">
+      <c r="I223" s="49" t="s">
         <v>542</v>
       </c>
       <c r="J223" s="15" t="s">
@@ -14432,7 +14479,9 @@
       <c r="A224" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B224" s="56"/>
+      <c r="B224" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C224" s="34">
         <v>43069</v>
       </c>
@@ -14448,10 +14497,10 @@
       <c r="G224" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="H224" s="50">
+      <c r="H224" s="49">
         <v>76106008</v>
       </c>
-      <c r="I224" s="50" t="s">
+      <c r="I224" s="49" t="s">
         <v>545</v>
       </c>
       <c r="J224" s="15" t="s">
@@ -14480,7 +14529,9 @@
       <c r="A225" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B225" s="56"/>
+      <c r="B225" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C225" s="34">
         <v>43069</v>
       </c>
@@ -14496,10 +14547,10 @@
       <c r="G225" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H225" s="50">
+      <c r="H225" s="49">
         <v>76105998</v>
       </c>
-      <c r="I225" s="50" t="s">
+      <c r="I225" s="49" t="s">
         <v>547</v>
       </c>
       <c r="J225" s="15" t="s">
@@ -14528,7 +14579,9 @@
       <c r="A226" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B226" s="57"/>
+      <c r="B226" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C226" s="34">
         <v>43069</v>
       </c>
@@ -14544,10 +14597,10 @@
       <c r="G226" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H226" s="50">
+      <c r="H226" s="49">
         <v>76105997</v>
       </c>
-      <c r="I226" s="50" t="s">
+      <c r="I226" s="49" t="s">
         <v>549</v>
       </c>
       <c r="J226" s="15" t="s">
@@ -14572,29 +14625,29 @@
         <v>171</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" s="5" customFormat="1" spans="1:16">
       <c r="A227" s="12"/>
-      <c r="B227" s="54"/>
-      <c r="C227" s="54"/>
-      <c r="D227" s="54"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="54"/>
-      <c r="H227" s="54"/>
-      <c r="I227" s="54"/>
-      <c r="J227" s="54"/>
-      <c r="K227" s="54"/>
-      <c r="L227" s="54"/>
-      <c r="M227" s="54"/>
-      <c r="N227" s="54"/>
-      <c r="O227" s="54"/>
-      <c r="P227" s="60"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="52"/>
+      <c r="D227" s="52"/>
+      <c r="E227" s="52"/>
+      <c r="F227" s="52"/>
+      <c r="G227" s="52"/>
+      <c r="H227" s="52"/>
+      <c r="I227" s="52"/>
+      <c r="J227" s="52"/>
+      <c r="K227" s="52"/>
+      <c r="L227" s="52"/>
+      <c r="M227" s="52"/>
+      <c r="N227" s="52"/>
+      <c r="O227" s="52"/>
+      <c r="P227" s="53"/>
     </row>
     <row r="228" s="6" customFormat="1" spans="1:16">
       <c r="A228" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B228" s="55" t="s">
+      <c r="B228" s="43" t="s">
         <v>551</v>
       </c>
       <c r="C228" s="18">
@@ -14644,7 +14697,9 @@
       <c r="A229" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B229" s="56"/>
+      <c r="B229" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C229" s="18">
         <v>43077</v>
       </c>
@@ -14692,7 +14747,9 @@
       <c r="A230" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B230" s="56"/>
+      <c r="B230" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C230" s="18">
         <v>43077</v>
       </c>
@@ -14740,7 +14797,9 @@
       <c r="A231" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B231" s="56"/>
+      <c r="B231" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C231" s="18">
         <v>43077</v>
       </c>
@@ -14759,7 +14818,7 @@
       <c r="H231" s="42">
         <v>76109756</v>
       </c>
-      <c r="I231" s="50" t="s">
+      <c r="I231" s="49" t="s">
         <v>561</v>
       </c>
       <c r="J231" s="45" t="s">
@@ -14771,13 +14830,13 @@
       <c r="L231" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M231" s="63" t="s">
+      <c r="M231" s="56" t="s">
         <v>562</v>
       </c>
       <c r="N231" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O231" s="50">
+      <c r="O231" s="49">
         <v>13807599790</v>
       </c>
       <c r="P231" s="45" t="s">
@@ -14788,7 +14847,9 @@
       <c r="A232" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="56"/>
+      <c r="B232" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C232" s="18">
         <v>43077</v>
       </c>
@@ -14807,7 +14868,7 @@
       <c r="H232" s="42">
         <v>76110188</v>
       </c>
-      <c r="I232" s="50" t="s">
+      <c r="I232" s="49" t="s">
         <v>563</v>
       </c>
       <c r="J232" s="45" t="s">
@@ -14836,7 +14897,9 @@
       <c r="A233" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B233" s="56"/>
+      <c r="B233" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C233" s="18">
         <v>43077</v>
       </c>
@@ -14855,7 +14918,7 @@
       <c r="H233" s="42">
         <v>76110321</v>
       </c>
-      <c r="I233" s="50" t="s">
+      <c r="I233" s="49" t="s">
         <v>566</v>
       </c>
       <c r="J233" s="45" t="s">
@@ -14884,7 +14947,9 @@
       <c r="A234" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B234" s="56"/>
+      <c r="B234" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C234" s="18">
         <v>43077</v>
       </c>
@@ -14903,7 +14968,7 @@
       <c r="H234" s="42">
         <v>76110778</v>
       </c>
-      <c r="I234" s="50" t="s">
+      <c r="I234" s="49" t="s">
         <v>568</v>
       </c>
       <c r="J234" s="45" t="s">
@@ -14932,7 +14997,9 @@
       <c r="A235" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B235" s="56"/>
+      <c r="B235" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C235" s="18">
         <v>43077</v>
       </c>
@@ -14951,7 +15018,7 @@
       <c r="H235" s="42">
         <v>76111510</v>
       </c>
-      <c r="I235" s="50" t="s">
+      <c r="I235" s="49" t="s">
         <v>571</v>
       </c>
       <c r="J235" s="45" t="s">
@@ -14980,7 +15047,9 @@
       <c r="A236" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B236" s="56"/>
+      <c r="B236" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C236" s="18">
         <v>43077</v>
       </c>
@@ -14999,7 +15068,7 @@
       <c r="H236" s="42">
         <v>76111511</v>
       </c>
-      <c r="I236" s="50" t="s">
+      <c r="I236" s="49" t="s">
         <v>573</v>
       </c>
       <c r="J236" s="45" t="s">
@@ -15028,7 +15097,9 @@
       <c r="A237" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B237" s="56"/>
+      <c r="B237" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C237" s="18">
         <v>43077</v>
       </c>
@@ -15047,7 +15118,7 @@
       <c r="H237" s="42">
         <v>76111516</v>
       </c>
-      <c r="I237" s="50" t="s">
+      <c r="I237" s="49" t="s">
         <v>575</v>
       </c>
       <c r="J237" s="45" t="s">
@@ -15076,7 +15147,9 @@
       <c r="A238" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B238" s="56"/>
+      <c r="B238" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C238" s="18">
         <v>43077</v>
       </c>
@@ -15095,7 +15168,7 @@
       <c r="H238" s="42">
         <v>76111580</v>
       </c>
-      <c r="I238" s="50" t="s">
+      <c r="I238" s="49" t="s">
         <v>577</v>
       </c>
       <c r="J238" s="45" t="s">
@@ -15107,13 +15180,13 @@
       <c r="L238" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M238" s="64" t="s">
+      <c r="M238" s="57" t="s">
         <v>578</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O238" s="64">
+      <c r="O238" s="57">
         <v>18817298582</v>
       </c>
       <c r="P238" s="45" t="s">
@@ -15124,7 +15197,9 @@
       <c r="A239" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B239" s="56"/>
+      <c r="B239" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C239" s="18">
         <v>43077</v>
       </c>
@@ -15143,7 +15218,7 @@
       <c r="H239" s="42">
         <v>76111933</v>
       </c>
-      <c r="I239" s="50" t="s">
+      <c r="I239" s="49" t="s">
         <v>579</v>
       </c>
       <c r="J239" s="45" t="s">
@@ -15155,7 +15230,7 @@
       <c r="L239" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M239" s="63" t="s">
+      <c r="M239" s="56" t="s">
         <v>333</v>
       </c>
       <c r="N239" s="15" t="s">
@@ -15172,7 +15247,9 @@
       <c r="A240" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B240" s="56"/>
+      <c r="B240" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C240" s="18">
         <v>43077</v>
       </c>
@@ -15220,7 +15297,9 @@
       <c r="A241" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B241" s="56"/>
+      <c r="B241" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C241" s="18">
         <v>43077</v>
       </c>
@@ -15251,13 +15330,13 @@
       <c r="L241" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M241" s="63" t="s">
+      <c r="M241" s="56" t="s">
         <v>584</v>
       </c>
       <c r="N241" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O241" s="50">
+      <c r="O241" s="49">
         <v>13736699998</v>
       </c>
       <c r="P241" s="45" t="s">
@@ -15268,7 +15347,9 @@
       <c r="A242" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B242" s="56"/>
+      <c r="B242" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C242" s="18">
         <v>43077</v>
       </c>
@@ -15299,13 +15380,13 @@
       <c r="L242" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M242" s="63" t="s">
+      <c r="M242" s="56" t="s">
         <v>585</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O242" s="63">
+      <c r="O242" s="56">
         <v>15950483577</v>
       </c>
       <c r="P242" s="45" t="s">
@@ -15316,7 +15397,9 @@
       <c r="A243" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B243" s="56"/>
+      <c r="B243" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C243" s="18">
         <v>43077</v>
       </c>
@@ -15364,7 +15447,9 @@
       <c r="A244" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B244" s="56"/>
+      <c r="B244" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C244" s="18">
         <v>43077</v>
       </c>
@@ -15383,7 +15468,7 @@
       <c r="H244" s="42">
         <v>76113089</v>
       </c>
-      <c r="I244" s="50" t="s">
+      <c r="I244" s="49" t="s">
         <v>589</v>
       </c>
       <c r="J244" s="45" t="s">
@@ -15412,7 +15497,9 @@
       <c r="A245" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B245" s="56"/>
+      <c r="B245" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C245" s="18">
         <v>43077</v>
       </c>
@@ -15431,7 +15518,7 @@
       <c r="H245" s="42">
         <v>76113091</v>
       </c>
-      <c r="I245" s="50" t="s">
+      <c r="I245" s="49" t="s">
         <v>591</v>
       </c>
       <c r="J245" s="45" t="s">
@@ -15460,7 +15547,9 @@
       <c r="A246" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B246" s="56"/>
+      <c r="B246" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C246" s="18">
         <v>43077</v>
       </c>
@@ -15479,7 +15568,7 @@
       <c r="H246" s="42">
         <v>76113280</v>
       </c>
-      <c r="I246" s="50" t="s">
+      <c r="I246" s="49" t="s">
         <v>593</v>
       </c>
       <c r="J246" s="45" t="s">
@@ -15508,7 +15597,9 @@
       <c r="A247" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B247" s="56"/>
+      <c r="B247" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C247" s="18">
         <v>43077</v>
       </c>
@@ -15527,7 +15618,7 @@
       <c r="H247" s="42">
         <v>76113305</v>
       </c>
-      <c r="I247" s="50" t="s">
+      <c r="I247" s="49" t="s">
         <v>595</v>
       </c>
       <c r="J247" s="45" t="s">
@@ -15539,13 +15630,13 @@
       <c r="L247" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M247" s="63" t="s">
+      <c r="M247" s="56" t="s">
         <v>596</v>
       </c>
       <c r="N247" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O247" s="63">
+      <c r="O247" s="56">
         <v>18114928177</v>
       </c>
       <c r="P247" s="45" t="s">
@@ -15556,7 +15647,9 @@
       <c r="A248" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B248" s="56"/>
+      <c r="B248" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C248" s="18">
         <v>43077</v>
       </c>
@@ -15575,7 +15668,7 @@
       <c r="H248" s="42">
         <v>76113311</v>
       </c>
-      <c r="I248" s="50" t="s">
+      <c r="I248" s="49" t="s">
         <v>597</v>
       </c>
       <c r="J248" s="45" t="s">
@@ -15604,7 +15697,9 @@
       <c r="A249" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B249" s="56"/>
+      <c r="B249" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C249" s="18">
         <v>43077</v>
       </c>
@@ -15623,7 +15718,7 @@
       <c r="H249" s="42">
         <v>76113900</v>
       </c>
-      <c r="I249" s="50" t="s">
+      <c r="I249" s="49" t="s">
         <v>599</v>
       </c>
       <c r="J249" s="45" t="s">
@@ -15652,7 +15747,9 @@
       <c r="A250" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B250" s="56"/>
+      <c r="B250" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C250" s="18">
         <v>43077</v>
       </c>
@@ -15671,7 +15768,7 @@
       <c r="H250" s="42">
         <v>76113977</v>
       </c>
-      <c r="I250" s="50" t="s">
+      <c r="I250" s="49" t="s">
         <v>601</v>
       </c>
       <c r="J250" s="45" t="s">
@@ -15700,7 +15797,9 @@
       <c r="A251" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B251" s="56"/>
+      <c r="B251" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C251" s="18">
         <v>43077</v>
       </c>
@@ -15719,7 +15818,7 @@
       <c r="H251" s="42">
         <v>76115020</v>
       </c>
-      <c r="I251" s="50" t="s">
+      <c r="I251" s="49" t="s">
         <v>603</v>
       </c>
       <c r="J251" s="45" t="s">
@@ -15748,7 +15847,9 @@
       <c r="A252" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B252" s="57"/>
+      <c r="B252" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C252" s="18">
         <v>43082</v>
       </c>
@@ -15794,27 +15895,27 @@
     </row>
     <row r="253" spans="1:16">
       <c r="A253" s="12"/>
-      <c r="B253" s="53"/>
-      <c r="C253" s="54"/>
-      <c r="D253" s="54"/>
-      <c r="E253" s="54"/>
-      <c r="F253" s="54"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54"/>
-      <c r="I253" s="54"/>
-      <c r="J253" s="54"/>
-      <c r="K253" s="54"/>
-      <c r="L253" s="54"/>
-      <c r="M253" s="54"/>
-      <c r="N253" s="54"/>
-      <c r="O253" s="54"/>
-      <c r="P253" s="60"/>
+      <c r="B253" s="51"/>
+      <c r="C253" s="52"/>
+      <c r="D253" s="52"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52"/>
+      <c r="H253" s="52"/>
+      <c r="I253" s="52"/>
+      <c r="J253" s="52"/>
+      <c r="K253" s="52"/>
+      <c r="L253" s="52"/>
+      <c r="M253" s="52"/>
+      <c r="N253" s="52"/>
+      <c r="O253" s="52"/>
+      <c r="P253" s="53"/>
     </row>
     <row r="254" spans="1:16">
       <c r="A254" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B254" s="58" t="s">
+      <c r="B254" s="17" t="s">
         <v>606</v>
       </c>
       <c r="C254" s="18">
@@ -15864,7 +15965,9 @@
       <c r="A255" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B255" s="59"/>
+      <c r="B255" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C255" s="18">
         <v>43087</v>
       </c>
@@ -15912,7 +16015,9 @@
       <c r="A256" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B256" s="59"/>
+      <c r="B256" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C256" s="18">
         <v>43088</v>
       </c>
@@ -15960,7 +16065,9 @@
       <c r="A257" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="59"/>
+      <c r="B257" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C257" s="18">
         <v>43089</v>
       </c>
@@ -16008,7 +16115,9 @@
       <c r="A258" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B258" s="65"/>
+      <c r="B258" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
@@ -16028,7 +16137,9 @@
       <c r="A259" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="65"/>
+      <c r="B259" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
@@ -16048,7 +16159,9 @@
       <c r="A260" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B260" s="65"/>
+      <c r="B260" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="O260" s="12"/>
       <c r="P260" s="8"/>
     </row>
@@ -16786,7 +16899,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="66"/>
+      <c r="A414" s="58"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -16858,7 +16971,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="66"/>
+      <c r="A432" s="58"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -16866,7 +16979,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="66"/>
+      <c r="A434" s="58"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -16874,7 +16987,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="66"/>
+      <c r="A436" s="58"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -16882,7 +16995,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="66"/>
+      <c r="A438" s="58"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -16890,7 +17003,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="66"/>
+      <c r="A440" s="58"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -16898,7 +17011,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="66"/>
+      <c r="A442" s="58"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -16906,7 +17019,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="66"/>
+      <c r="A444" s="58"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -16914,7 +17027,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="66"/>
+      <c r="A446" s="58"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -16922,7 +17035,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="66"/>
+      <c r="A448" s="58"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -16930,7 +17043,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="66"/>
+      <c r="A450" s="58"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -16938,7 +17051,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="66"/>
+      <c r="A452" s="58"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -16946,7 +17059,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="66"/>
+      <c r="A454" s="58"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -16954,7 +17067,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="66"/>
+      <c r="A456" s="58"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -16962,7 +17075,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="66"/>
+      <c r="A458" s="58"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -16970,7 +17083,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="66"/>
+      <c r="A460" s="58"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -16978,7 +17091,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="66"/>
+      <c r="A462" s="58"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -16986,7 +17099,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="66"/>
+      <c r="A464" s="58"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -16994,7 +17107,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="66"/>
+      <c r="A466" s="58"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17002,7 +17115,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="66"/>
+      <c r="A468" s="58"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17010,7 +17123,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="66"/>
+      <c r="A470" s="58"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17018,7 +17131,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="66"/>
+      <c r="A472" s="58"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17026,7 +17139,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="66"/>
+      <c r="A474" s="58"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17034,7 +17147,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="66"/>
+      <c r="A476" s="58"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17042,7 +17155,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="66"/>
+      <c r="A478" s="58"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17050,7 +17163,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="66"/>
+      <c r="A480" s="58"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17058,7 +17171,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="66"/>
+      <c r="A482" s="58"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17066,7 +17179,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="66"/>
+      <c r="A484" s="58"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17074,7 +17187,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="66"/>
+      <c r="A486" s="58"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17082,7 +17195,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="66"/>
+      <c r="A488" s="58"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17090,7 +17203,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="66"/>
+      <c r="A490" s="58"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17098,7 +17211,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="66"/>
+      <c r="A492" s="58"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17106,7 +17219,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="66"/>
+      <c r="A494" s="58"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17114,7 +17227,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="66"/>
+      <c r="A496" s="58"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17122,7 +17235,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="66"/>
+      <c r="A498" s="58"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17130,7 +17243,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="66"/>
+      <c r="A500" s="58"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17138,7 +17251,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="66"/>
+      <c r="A502" s="58"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17146,7 +17259,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="66"/>
+      <c r="A504" s="58"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17154,7 +17267,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="66"/>
+      <c r="A506" s="58"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17162,7 +17275,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="66"/>
+      <c r="A508" s="58"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17170,7 +17283,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="66"/>
+      <c r="A510" s="58"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17178,7 +17291,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="66"/>
+      <c r="A512" s="58"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17186,7 +17299,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="66"/>
+      <c r="A514" s="58"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17194,7 +17307,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="66"/>
+      <c r="A516" s="58"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17202,7 +17315,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="66"/>
+      <c r="A518" s="58"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17210,7 +17323,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="66"/>
+      <c r="A520" s="58"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17218,7 +17331,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="66"/>
+      <c r="A522" s="58"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17226,7 +17339,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="66"/>
+      <c r="A524" s="58"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17234,7 +17347,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="66"/>
+      <c r="A526" s="58"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17242,7 +17355,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="66"/>
+      <c r="A528" s="58"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17250,7 +17363,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="66"/>
+      <c r="A530" s="58"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17258,7 +17371,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="66"/>
+      <c r="A532" s="58"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17266,7 +17379,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="66"/>
+      <c r="A534" s="58"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17274,7 +17387,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="66"/>
+      <c r="A536" s="58"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17282,7 +17395,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="66"/>
+      <c r="A538" s="58"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17290,7 +17403,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="66"/>
+      <c r="A540" s="58"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17298,7 +17411,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="66"/>
+      <c r="A542" s="58"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17306,7 +17419,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="66"/>
+      <c r="A544" s="58"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17314,7 +17427,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="66"/>
+      <c r="A546" s="58"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17322,7 +17435,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="66"/>
+      <c r="A548" s="58"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17330,7 +17443,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="66"/>
+      <c r="A550" s="58"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17338,7 +17451,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="66"/>
+      <c r="A552" s="58"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17346,7 +17459,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="66"/>
+      <c r="A554" s="58"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17354,7 +17467,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="66"/>
+      <c r="A556" s="58"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17362,7 +17475,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="66"/>
+      <c r="A558" s="58"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17370,7 +17483,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="66"/>
+      <c r="A560" s="58"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17378,7 +17491,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="66"/>
+      <c r="A562" s="58"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17386,7 +17499,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="66"/>
+      <c r="A564" s="58"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17394,7 +17507,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="66"/>
+      <c r="A566" s="58"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17402,7 +17515,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="66"/>
+      <c r="A568" s="58"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17410,7 +17523,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="66"/>
+      <c r="A570" s="58"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17418,7 +17531,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="66"/>
+      <c r="A572" s="58"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17426,7 +17539,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="66"/>
+      <c r="A574" s="58"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17434,7 +17547,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="66"/>
+      <c r="A576" s="58"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17442,7 +17555,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="66"/>
+      <c r="A578" s="58"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17450,7 +17563,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="66"/>
+      <c r="A580" s="58"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17458,7 +17571,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="66"/>
+      <c r="A582" s="58"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17466,7 +17579,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="66"/>
+      <c r="A584" s="58"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17474,7 +17587,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="66"/>
+      <c r="A586" s="58"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17482,7 +17595,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="66"/>
+      <c r="A588" s="58"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17490,7 +17603,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="66"/>
+      <c r="A590" s="58"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17498,7 +17611,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="66"/>
+      <c r="A592" s="58"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17506,7 +17619,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="66"/>
+      <c r="A594" s="58"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17514,7 +17627,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="66"/>
+      <c r="A596" s="58"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17522,7 +17635,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="66"/>
+      <c r="A598" s="58"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17530,7 +17643,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="66"/>
+      <c r="A600" s="58"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17538,7 +17651,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="66"/>
+      <c r="A602" s="58"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17546,7 +17659,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="66"/>
+      <c r="A604" s="58"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17554,7 +17667,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="66"/>
+      <c r="A606" s="58"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17562,7 +17675,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="66"/>
+      <c r="A608" s="58"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17570,7 +17683,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="66"/>
+      <c r="A610" s="58"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17578,7 +17691,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="66"/>
+      <c r="A612" s="58"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17586,7 +17699,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="66"/>
+      <c r="A614" s="58"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -17594,7 +17707,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="66"/>
+      <c r="A616" s="58"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -17602,442 +17715,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="67"/>
+      <c r="A618" s="59"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="67"/>
+      <c r="A620" s="59"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="67"/>
+      <c r="A622" s="59"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="67"/>
+      <c r="A624" s="59"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="67"/>
+      <c r="A626" s="59"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="67"/>
+      <c r="A628" s="59"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="67"/>
+      <c r="A630" s="59"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="67"/>
+      <c r="A632" s="59"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="67"/>
+      <c r="A634" s="59"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="67"/>
+      <c r="A636" s="59"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="67"/>
+      <c r="A638" s="59"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="67"/>
+      <c r="A640" s="59"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="67"/>
+      <c r="A642" s="59"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="67"/>
+      <c r="A644" s="59"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="67"/>
+      <c r="A646" s="59"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="67"/>
+      <c r="A648" s="59"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="67"/>
+      <c r="A650" s="59"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="67"/>
+      <c r="A652" s="59"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="67"/>
+      <c r="A654" s="59"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="67"/>
+      <c r="A656" s="59"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="67"/>
+      <c r="A658" s="59"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="67"/>
+      <c r="A660" s="59"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="67"/>
+      <c r="A662" s="59"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="67"/>
+      <c r="A664" s="59"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="67"/>
+      <c r="A666" s="59"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="67"/>
+      <c r="A668" s="59"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="67"/>
+      <c r="A670" s="59"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="67"/>
+      <c r="A672" s="59"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="67"/>
+      <c r="A674" s="59"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="67"/>
+      <c r="A676" s="59"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="67"/>
+      <c r="A678" s="59"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="67"/>
+      <c r="A680" s="59"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="67"/>
+      <c r="A682" s="59"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="67"/>
+      <c r="A684" s="59"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="67"/>
+      <c r="A686" s="59"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="67"/>
+      <c r="A688" s="59"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="67"/>
+      <c r="A690" s="59"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="67"/>
+      <c r="A692" s="59"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="67"/>
+      <c r="A694" s="59"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="67"/>
+      <c r="A696" s="59"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="67"/>
+      <c r="A698" s="59"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="67"/>
+      <c r="A700" s="59"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="67"/>
+      <c r="A702" s="59"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="67"/>
+      <c r="A704" s="59"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="67"/>
+      <c r="A706" s="59"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="67"/>
+      <c r="A708" s="59"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="67"/>
+      <c r="A710" s="59"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="67"/>
+      <c r="A712" s="59"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="67"/>
+      <c r="A714" s="59"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="67"/>
+      <c r="A716" s="59"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="67"/>
+      <c r="A718" s="59"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="67"/>
+      <c r="A720" s="59"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="67"/>
+      <c r="A722" s="59"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="67"/>
+      <c r="A724" s="59"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="67"/>
+      <c r="A726" s="59"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="67"/>
+      <c r="A728" s="59"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="67"/>
+      <c r="A730" s="59"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="67"/>
+      <c r="A732" s="59"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="67"/>
+      <c r="A734" s="59"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="67"/>
+      <c r="A736" s="59"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="67"/>
+      <c r="A738" s="59"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="67"/>
+      <c r="A740" s="59"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="67"/>
+      <c r="A742" s="59"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="67"/>
+      <c r="A744" s="59"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="67"/>
+      <c r="A746" s="59"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="67"/>
+      <c r="A748" s="59"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="67"/>
+      <c r="A750" s="59"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="67"/>
+      <c r="A752" s="59"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="67"/>
+      <c r="A754" s="59"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="67"/>
+      <c r="A756" s="59"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A200:P200"/>
-    <mergeCell ref="A216:P216"/>
-    <mergeCell ref="A227:P227"/>
-    <mergeCell ref="A253:P253"/>
-    <mergeCell ref="B180:B199"/>
-    <mergeCell ref="B201:B215"/>
-    <mergeCell ref="B217:B226"/>
-    <mergeCell ref="B228:B252"/>
-    <mergeCell ref="B254:B260"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C260:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C260:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D216 D217:D226 D230:D234 D260:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>

--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -1946,10 +1946,10 @@
     <t>查厘士(徐汇日月光店)上线</t>
   </si>
   <si>
-    <t>捞王锅物料理(宝山龙湖店）开业驻店</t>
-  </si>
-  <si>
-    <t>捞王锅物料理(五角场万达店）上线</t>
+    <t>捞王锅物料理(宝山龙湖店）上线</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(五角场万达店）开业驻店</t>
   </si>
 </sst>
 </file>
@@ -1957,10 +1957,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
@@ -2040,11 +2040,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2052,122 +2047,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2187,11 +2068,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2259,25 +2259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,91 +2295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,7 +2325,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,13 +2379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,7 +2403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,6 +2792,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2816,76 +2881,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,10 +2895,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2907,141 +2907,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
@@ -4176,8 +4176,8 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A201" sqref="$A201:$XFD218"/>
     </sheetView>
@@ -18155,8 +18155,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
